--- a/data/trans_camb/P54_A_6_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_6_R-Edad-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>33,33</t>
+          <t>32,99</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>42,61</t>
+          <t>42,53</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>47,51</t>
+          <t>46,49</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>51,31</t>
+          <t>50,22</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>40,15</t>
+          <t>39,52</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>47,0</t>
+          <t>46,43</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>22,57; 43,5</t>
+          <t>21,88; 43,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>31,33; 52,85</t>
+          <t>31,19; 52,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>38,45; 57,27</t>
+          <t>35,96; 55,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>42,57; 60,47</t>
+          <t>39,2; 59,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>32,27; 47,31</t>
+          <t>32,27; 47,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>40,6; 54,36</t>
+          <t>39,88; 53,82</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>114,65%</t>
+          <t>113,46%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>146,59%</t>
+          <t>146,28%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>135,39%</t>
+          <t>132,5%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>146,23%</t>
+          <t>143,14%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>125,73%</t>
+          <t>123,78%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>147,2%</t>
+          <t>145,4%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>62,41; 181,75</t>
+          <t>63,12; 180,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>89,78; 222,47</t>
+          <t>87,29; 218,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>92,08; 201,84</t>
+          <t>85,5; 193,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>102,26; 212,42</t>
+          <t>91,94; 210,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>89,86; 171,52</t>
+          <t>91,44; 172,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>111,79; 196,78</t>
+          <t>108,73; 192,86</t>
         </is>
       </c>
     </row>
@@ -757,22 +757,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>34,12</t>
+          <t>34,38</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>36,34</t>
+          <t>35,92</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>30,21</t>
+          <t>29,91</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>38,11</t>
+          <t>37,8</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>37,19</t>
+          <t>36,8</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>19,95; 44,37</t>
+          <t>20,74; 45,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>24,88; 46,67</t>
+          <t>22,31; 46,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,96; 38,95</t>
+          <t>19,8; 39,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>30,29; 47,05</t>
+          <t>29,87; 46,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,99; 38,98</t>
+          <t>24,39; 40,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>29,96; 43,86</t>
+          <t>29,15; 43,93</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>88,23%</t>
+          <t>88,87%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>93,97%</t>
+          <t>92,85%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>63,89%</t>
+          <t>63,24%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>80,59%</t>
+          <t>79,92%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>75,35%</t>
+          <t>75,33%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>86,93%</t>
+          <t>86,02%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>41,02; 144,02</t>
+          <t>42,77; 145,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>52,44; 150,45</t>
+          <t>44,87; 153,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>41,21; 97,25</t>
+          <t>37,89; 93,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>57,58; 114,67</t>
+          <t>54,93; 113,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>48,18; 101,56</t>
+          <t>51,35; 108,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>62,03; 116,19</t>
+          <t>59,17; 117,56</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>29,22</t>
+          <t>32,51</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>35,01</t>
+          <t>34,59</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>36,13</t>
+          <t>35,84</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>38,16</t>
+          <t>38,29</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>32,65</t>
+          <t>34,23</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>36,67</t>
+          <t>36,54</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,37; 40,18</t>
+          <t>21,02; 42,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>25,63; 43,31</t>
+          <t>26,52; 43,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>28,09; 43,82</t>
+          <t>28,61; 43,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>31,3; 45,17</t>
+          <t>31,97; 45,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>24,42; 38,7</t>
+          <t>27,5; 40,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>30,7; 42,25</t>
+          <t>31,43; 42,46</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>70,23%</t>
+          <t>78,14%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>84,16%</t>
+          <t>83,14%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>77,8%</t>
+          <t>77,18%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>82,19%</t>
+          <t>82,46%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>74,2%</t>
+          <t>77,78%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>83,33%</t>
+          <t>83,02%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>33,79; 109,48</t>
+          <t>46,16; 121,13</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>52,2; 117,68</t>
+          <t>55,16; 121,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>54,38; 105,47</t>
+          <t>57,33; 103,6</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>61,11; 110,02</t>
+          <t>63,14; 109,15</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>52,52; 95,03</t>
+          <t>59,17; 100,72</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>64,29; 103,99</t>
+          <t>66,15; 107,07</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>43,94</t>
+          <t>43,73</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>46,31</t>
+          <t>46,76</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>39,94</t>
+          <t>38,89</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>44,12</t>
+          <t>44,23</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>41,93</t>
+          <t>41,26</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>45,23</t>
+          <t>45,51</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>36,3; 51,2</t>
+          <t>36,05; 50,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>38,54; 53,13</t>
+          <t>39,73; 53,55</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>33,29; 47,2</t>
+          <t>31,82; 45,57</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>37,06; 50,49</t>
+          <t>38,28; 51,09</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>37,06; 46,99</t>
+          <t>36,07; 46,74</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>40,34; 50,18</t>
+          <t>40,99; 50,43</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>134,68%</t>
+          <t>134,01%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>141,92%</t>
+          <t>143,3%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>89,81%</t>
+          <t>87,46%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>99,22%</t>
+          <t>99,46%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>108,36%</t>
+          <t>106,64%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>116,91%</t>
+          <t>117,62%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>98,68; 183,54</t>
+          <t>98,33; 182,08</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>102,78; 188,74</t>
+          <t>107,0; 190,08</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>67,09; 116,96</t>
+          <t>64,96; 114,83</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>74,36; 128,06</t>
+          <t>78,14; 128,67</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>88,56; 131,78</t>
+          <t>86,13; 132,42</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>95,9; 143,03</t>
+          <t>97,32; 144,05</t>
         </is>
       </c>
     </row>
@@ -1225,27 +1225,27 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>44,35</t>
+          <t>43,37</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>41,07</t>
+          <t>41,17</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>51,92</t>
+          <t>51,63</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>51,5</t>
+          <t>51,41</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>48,29</t>
+          <t>47,63</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>35,33; 53,04</t>
+          <t>33,38; 51,6</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>32,64; 49,04</t>
+          <t>33,16; 50,11</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>43,41; 59,64</t>
+          <t>43,92; 58,98</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>42,82; 58,87</t>
+          <t>43,4; 59,29</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>41,92; 54,14</t>
+          <t>41,29; 53,13</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>40,38; 51,86</t>
+          <t>40,71; 52,32</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>134,9%</t>
+          <t>131,93%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>124,93%</t>
+          <t>125,22%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>129,11%</t>
+          <t>128,38%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>128,05%</t>
+          <t>127,83%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>132,67%</t>
+          <t>130,85%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>127,69%</t>
+          <t>127,68%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>95,26; 196,24</t>
+          <t>88,46; 180,27</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>87,42; 175,69</t>
+          <t>88,84; 182,76</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>91,49; 175,86</t>
+          <t>94,98; 175,91</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>92,97; 173,89</t>
+          <t>94,14; 174,36</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>105,58; 168,03</t>
+          <t>104,54; 165,51</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>100,83; 159,95</t>
+          <t>101,25; 162,23</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>33,07</t>
+          <t>35,37</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>43,82</t>
+          <t>43,14</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>42,33</t>
+          <t>41,17</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>45,29</t>
+          <t>44,89</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>38,41</t>
+          <t>38,75</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>44,66</t>
+          <t>44,15</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>20,56; 43,74</t>
+          <t>24,1; 45,13</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>34,05; 52,66</t>
+          <t>33,67; 50,95</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>34,1; 51,47</t>
+          <t>31,78; 49,04</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>37,43; 52,5</t>
+          <t>36,65; 52,7</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>31,12; 45,1</t>
+          <t>31,84; 44,68</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>38,55; 50,42</t>
+          <t>37,98; 49,71</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>77,22%</t>
+          <t>82,59%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>102,32%</t>
+          <t>100,74%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>93,92%</t>
+          <t>91,34%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>100,47%</t>
+          <t>99,61%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>87,17%</t>
+          <t>87,95%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>101,33%</t>
+          <t>100,19%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>42,46; 119,46</t>
+          <t>48,64; 123,23</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>65,75; 145,1</t>
+          <t>65,34; 140,46</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>65,94; 130,93</t>
+          <t>63,83; 126,61</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>71,02; 134,36</t>
+          <t>71,49; 137,26</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>63,07; 113,31</t>
+          <t>64,91; 112,27</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>78,47; 127,42</t>
+          <t>77,87; 125,62</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>36,31</t>
+          <t>37,17</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>40,76</t>
+          <t>40,59</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>40,97</t>
+          <t>40,25</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>44,24</t>
+          <t>44,01</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>38,73</t>
+          <t>38,81</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>42,61</t>
+          <t>42,42</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>31,32; 40,69</t>
+          <t>33,2; 41,44</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>36,73; 44,82</t>
+          <t>36,49; 44,03</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>37,51; 44,05</t>
+          <t>36,81; 43,65</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>40,81; 47,38</t>
+          <t>40,86; 47,37</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>36,08; 41,85</t>
+          <t>36,08; 41,44</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>40,48; 45,66</t>
+          <t>39,89; 44,75</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>99,86%</t>
+          <t>102,21%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>112,1%</t>
+          <t>111,62%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>94,1%</t>
+          <t>92,47%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>101,62%</t>
+          <t>101,1%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>96,97%</t>
+          <t>97,16%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>106,68%</t>
+          <t>106,19%</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,39 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>80,19; 120,21</t>
+          <t>84,2; 121,95</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>93,1; 132,69</t>
+          <t>92,45; 129,06</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>82,42; 107,55</t>
+          <t>80,5; 105,61</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>88,58; 115,47</t>
+          <t>89,18; 114,46</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>86,36; 109,54</t>
+          <t>86,72; 108,28</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>97,47; 121,43</t>
+          <t>95,87; 117,58</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
